--- a/src/test/resources/excel/bind_template4.xlsx
+++ b/src/test/resources/excel/bind_template4.xlsx
@@ -20,15 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">数値</t>
+  </si>
   <si>
     <t xml:space="preserve">${numeric}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文字</t>
   </si>
   <si>
     <t xml:space="preserve">${string}</t>
   </si>
   <si>
+    <t xml:space="preserve">日付</t>
+  </si>
+  <si>
     <t xml:space="preserve">${date}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数式</t>
   </si>
   <si>
     <t xml:space="preserve">${formula}</t>
@@ -128,7 +140,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
@@ -143,20 +155,32 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
